--- a/ocms/src/test/resources/TestData/OCMAgentScriptingReport.xlsx
+++ b/ocms/src/test/resources/TestData/OCMAgentScriptingReport.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13200" windowHeight="5145" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="15195" windowHeight="6495" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Show" sheetId="1" r:id="rId1"/>
@@ -13,9 +13,11 @@
     <sheet name="ShowInNewPageDateRange" sheetId="4" r:id="rId4"/>
     <sheet name="ExportReport" sheetId="5" r:id="rId5"/>
     <sheet name="ExportReportDateRange" sheetId="6" r:id="rId6"/>
+    <sheet name="Queries" sheetId="7" r:id="rId7"/>
+    <sheet name="AdvanceSearch" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:G15"/>
+  <oleSize ref="A1:K2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
   <si>
     <t>Report Channel</t>
   </si>
@@ -42,9 +44,6 @@
     <t>Single Date</t>
   </si>
   <si>
-    <t>random.str</t>
-  </si>
-  <si>
     <t>Start Date</t>
   </si>
   <si>
@@ -58,19 +57,117 @@
   </si>
   <si>
     <t>Agent</t>
+  </si>
+  <si>
+    <t>Query</t>
+  </si>
+  <si>
+    <t>27-07-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>04-08-2020 00:00:00</t>
+  </si>
+  <si>
+    <t>Select M.SessionId as [Session ID],M.CampaignId as [Campaign ID],M.CustomerId as [CustomerId],
+M.UCID,M.AgentId as [Agent ID],M.StationId as [Station ID],M.Intent as [Intent],
+M.QuestionnaireName as [Questionnaire Name],M.SurveyStartDateTime as [Survey Start Date Time],
+isnull(M.SurveyEndDateTime,'') as [Survey End Date Time] from 
+(SELECT SessionId,CampaignId,CustomerId,status,Reason,UCID,AgentId,StationId,SurveyType,Intent,QuestionnaireName,   
+FORMAT(SurveyStartDateTime,'dd/MM/yyyy HH:mm:ss')SurveyStartDateTime, FORMAT(SurveyEndDateTime,'dd/MM/yyyy HH:mm:ss')SurveyEndDateTime 
+FROM TAS_SurveyResult WITH(NOLOCK)  
+WHERE [SurveyStartDateTime]&gt;='ReportBeforeDate' and [SurveyStartDateTime]&lt;='ReportAfterDate') M
+order by M.SurveyStartDateTime;</t>
+  </si>
+  <si>
+    <t>Column Name</t>
+  </si>
+  <si>
+    <t>Column Type</t>
+  </si>
+  <si>
+    <t>Search String</t>
+  </si>
+  <si>
+    <t>Is equal to</t>
+  </si>
+  <si>
+    <t>Is not equal to</t>
+  </si>
+  <si>
+    <t>Contains</t>
+  </si>
+  <si>
+    <t>Does not contain</t>
+  </si>
+  <si>
+    <t>Starts with</t>
+  </si>
+  <si>
+    <t>Ends with</t>
+  </si>
+  <si>
+    <t>Agent ID</t>
+  </si>
+  <si>
+    <t>Station ID</t>
+  </si>
+  <si>
+    <t>Campaign ID</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>50033</t>
+  </si>
+  <si>
+    <t>Advanced Search</t>
+  </si>
+  <si>
+    <t>Search String1</t>
+  </si>
+  <si>
+    <t>Search String2</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>16server</t>
+  </si>
+  <si>
+    <t>50099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,9 +190,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -156,7 +265,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,7 +300,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -368,7 +477,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -379,7 +488,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -406,16 +515,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -425,10 +534,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,11 +545,14 @@
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.140625" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,27 +563,175 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -484,7 +744,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,16 +771,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -533,7 +793,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,27 +816,27 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +849,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,16 +876,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -637,8 +897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,30 +921,193 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1"/>
+    <col min="10" max="10" width="20.140625" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>